--- a/dataset/NEW_TEST/selec/OD_over_all.xlsx
+++ b/dataset/NEW_TEST/selec/OD_over_all.xlsx
@@ -480,22 +480,22 @@
         </is>
       </c>
       <c r="C2" t="n">
-        <v>0</v>
+        <v>39</v>
       </c>
       <c r="D2" t="n">
-        <v>0.8513417641321818</v>
+        <v>0.8851593573888142</v>
       </c>
       <c r="E2" t="n">
-        <v>0.5016739583090206</v>
+        <v>0.8704305036477874</v>
       </c>
       <c r="F2" t="n">
-        <v>0.5415456309363971</v>
+        <v>0.2706814414092556</v>
       </c>
       <c r="G2" t="n">
-        <v>0.09433213192178452</v>
+        <v>0.007066974652364558</v>
       </c>
       <c r="H2" t="n">
-        <v>0.5208478503999904</v>
+        <v>0.412947010842463</v>
       </c>
     </row>
   </sheetData>
